--- a/results/Confusion Matrices.xlsx
+++ b/results/Confusion Matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Desktop\COMP594\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC627AE9-5119-4168-ACA0-D06CB1BF9B3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13DCC7DF-0D70-4AFD-876F-191F5E946E49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{EDFB9E3D-3BC4-408C-AD52-D93635BF9D33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Multiple Models Matrix</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Above is for the short trained distinguishing model</t>
+  </si>
+  <si>
+    <t>Above is for the long trained distinguishing model</t>
+  </si>
+  <si>
+    <t>Above is for the .6 modified threshold for distinguisher</t>
+  </si>
+  <si>
+    <t>Above is for the fair, non-biased threshold caculated values</t>
+  </si>
+  <si>
+    <t>Above is for non-biased thresholds with long-trained models, for comparison</t>
+  </si>
+  <si>
+    <t>USE THIS ONE</t>
   </si>
 </sst>
 </file>
@@ -117,20 +132,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8302C9E5-8578-447C-8B97-B912820C17AB}">
-  <dimension ref="B8:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,27 +476,31 @@
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -495,81 +517,81 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
-        <v>2840</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1505</v>
-      </c>
-      <c r="F11" s="2">
-        <v>522</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4867</v>
+      <c r="D11" s="1">
+        <v>6858</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4625</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4655</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16138</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
-        <v>156</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6615</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1335</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8107</v>
+      <c r="D12" s="1">
+        <v>309</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9530</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2415</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12254</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>2192</v>
-      </c>
-      <c r="E13" s="2">
-        <v>14271</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2342294</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2358760</v>
+      <c r="D13" s="1">
+        <v>3461</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16841</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6504906</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6525208</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f>SUM(D11:D13)</f>
-        <v>5188</v>
-      </c>
-      <c r="E14" s="2">
+        <v>10628</v>
+      </c>
+      <c r="E14" s="1">
         <f>SUM(E11:E13)</f>
-        <v>22391</v>
-      </c>
-      <c r="F14" s="2">
+        <v>30996</v>
+      </c>
+      <c r="F14" s="1">
         <f>SUM(F11:F13)</f>
-        <v>2344151</v>
-      </c>
-      <c r="G14" s="2">
+        <v>6511976</v>
+      </c>
+      <c r="G14" s="1">
         <f>SUM(G11:G13)</f>
-        <v>2371734</v>
+        <v>6553600</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -577,27 +599,482 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6699</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4784</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4655</v>
+      </c>
+      <c r="H25" s="1">
+        <v>16138</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>339</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9500</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2415</v>
+      </c>
+      <c r="H26" s="1">
+        <v>12254</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3457</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16845</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6504906</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6525208</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7231</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4252</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4655</v>
+      </c>
+      <c r="H37" s="1">
+        <v>16138</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>350</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9489</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2415</v>
+      </c>
+      <c r="H38" s="1">
+        <v>12254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3721</v>
+      </c>
+      <c r="F39" s="1">
+        <v>16581</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6504906</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6525208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6967</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4229</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4942</v>
+      </c>
+      <c r="G50" s="1">
+        <v>16138</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>329</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9366</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2559</v>
+      </c>
+      <c r="G51" s="1">
+        <v>12254</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3375</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16061</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6505772</v>
+      </c>
+      <c r="G52" s="1">
+        <v>6525208</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
+        <f>SUM(D50:D52)</f>
+        <v>10671</v>
+      </c>
+      <c r="E53" s="1">
+        <f>SUM(E50:E52)</f>
+        <v>29656</v>
+      </c>
+      <c r="F53" s="1">
+        <f>SUM(F50:F52)</f>
+        <v>6513273</v>
+      </c>
+      <c r="G53" s="1">
+        <f>(SUM(G50:G52))</f>
+        <v>6553600</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6819</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4509</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4810</v>
+      </c>
+      <c r="G63" s="1">
+        <v>16138</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>364</v>
+      </c>
+      <c r="E64" s="1">
+        <v>9265</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2625</v>
+      </c>
+      <c r="G64" s="1">
+        <v>12254</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3457</v>
+      </c>
+      <c r="E65" s="1">
+        <v>15590</v>
+      </c>
+      <c r="F65" s="1">
+        <v>6506161</v>
+      </c>
+      <c r="G65" s="1">
+        <v>6525208</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <f>SUM(D63:D65)</f>
+        <v>10640</v>
+      </c>
+      <c r="E66" s="1">
+        <f>SUM(E63:E65)</f>
+        <v>29364</v>
+      </c>
+      <c r="F66" s="1">
+        <f>SUM(F63:F65)</f>
+        <v>6513596</v>
+      </c>
+      <c r="G66" s="1">
+        <f>(SUM(G63:G65))</f>
+        <v>6553600</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="D23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
